--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/80_Yozgat_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/80_Yozgat_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF1BA3DA-0FA6-49C9-B9DE-8F6ED31A506C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE7ACBC5-3F63-47A0-9BD6-8C7DB8F11479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{C7A839BD-D449-4980-868C-9267697871A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{CAFABC20-E65F-4A7E-B7C4-03A643E2A944}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -949,13 +949,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{C1208C30-AC51-42B2-8FEE-8907CD599C7E}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{36DFC72F-D904-4726-A984-7D0726A0DA3A}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{AD0E3605-0043-4109-90E2-23E99CC1699B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{3E26AFD7-D7F5-4DEF-B2D3-E1B29A8FAD74}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{DC8A43C6-5ADD-4774-8B74-48374649B289}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{96E7F190-99F7-45A4-88E9-BAC711F167EC}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{35A43D7A-227E-484A-8738-D74D6E81DA46}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{53A25096-97D7-42DD-98C1-B682EDED101B}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{0EF38EAB-AF2C-4B0D-8F03-906EF05802CB}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{333B02CE-B474-4CF6-BE05-CB07EA6FA6F8}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{113B7305-21B0-44A5-BC3D-C05480D826D0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{1CF6FF29-4C47-4433-8A59-71A4AC8F02F2}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{400EF562-9C99-43F4-BAEB-0759E12A750D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{1A2BDDC5-4CE6-406D-98B4-FBD3CFBC9A84}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1325,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1FF411-D42E-4893-8C5F-AA4C57A7159B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202FD936-B6DF-45F8-B166-591871D17807}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2596,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C55A803-22C9-493C-9EB2-163BD3AC5805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7000631-1D92-4953-9912-48608D23B315}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3858,7 +3858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7815D84-453E-4CDB-A81A-38C6D2CADA2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937BB53E-D859-48CA-9AA9-AEDC11946BCD}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5118,7 +5118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D247067-20ED-4753-9709-3D8571229C7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B49C73-F91B-4D37-BE77-6CF7FFDA4A81}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6362,7 +6362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDD055-958E-4CE2-A74D-85B6384A0740}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA1DD05-3842-4762-82A7-C4F2054AB71C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7631,7 +7631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACD347F-A066-4DE0-95D0-25C076A67CEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8962CDE-FE1E-4C0D-9DB8-496941860C2F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8902,7 +8902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A114CBD5-F68A-48D7-9007-5BB7DFA4C41E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05CC729-C79A-43E9-BD2D-63D04645FDFD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10173,7 +10173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E88D4F-24DF-4F33-87B8-988CFA4E9E91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638573CC-64BB-4DA2-8A52-C8B773416805}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11442,7 +11442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45B3DD9-0C68-4773-BDEC-E349247EE6D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010FC4A1-423E-4468-AE5D-4F37CDBDB22F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12707,7 +12707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F097578-F92B-44AD-8C8C-1397C481645C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C093A8F1-2E66-499B-BF26-5D28D2BD6454}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13971,7 +13971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A787A31-4AB0-4EF7-A409-2D49C5D7EFF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF11A77-6C5B-4F62-8BEE-A7D3CBB6A0E8}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15235,7 +15235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E592B33-60EB-4F33-AAE7-06C67914071D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C3AEBB-0EC6-4A5F-8016-A744D35C2740}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
